--- a/AAII_Financials/Yearly/SNTW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNTW_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>SNTW</t>
   </si>
@@ -2183,20 +2183,20 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/SNTW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNTW_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>SNTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,58 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43677</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43312</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42947</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42582</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42216</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41851</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -730,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -744,9 +747,12 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -756,20 +762,20 @@
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -777,9 +783,12 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -789,8 +798,8 @@
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -801,8 +810,8 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,17 +907,20 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -918,15 +937,18 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,31 +995,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1002,9 +1028,12 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1012,11 +1041,11 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1026,8 +1055,8 @@
       <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,8 +1083,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1074,8 +1107,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1083,29 +1116,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1116,9 +1152,12 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1149,21 +1188,24 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1173,8 +1215,8 @@
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1182,20 +1224,23 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1206,8 +1251,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,21 +1296,24 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1272,8 +1323,8 @@
       <c r="I26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1281,21 +1332,24 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1305,8 +1359,8 @@
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,9 +1512,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1470,8 +1539,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1479,21 +1548,24 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1503,8 +1575,8 @@
       <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,21 +1620,24 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1569,8 +1647,8 @@
       <c r="I35" s="3">
         <v>0</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1578,47 +1656,53 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43677</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43312</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42947</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42582</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42216</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41851</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,19 +1732,20 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+      <c r="F41" s="3">
+        <v>0</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1679,9 +1765,12 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,9 +1801,12 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,9 +1873,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1802,23 +1900,26 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1835,8 +1936,8 @@
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1844,9 +1945,12 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1877,14 +1981,17 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -1901,8 +2008,8 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1910,9 +2017,12 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,17 +2125,20 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2033,8 +2152,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,14 +2197,17 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2099,8 +2224,8 @@
       <c r="I54" s="3">
         <v>0</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+      <c r="J54" s="3">
+        <v>0</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,8 +2268,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2171,20 +2301,23 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2198,26 +2331,29 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2228,8 +2364,8 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2237,20 +2373,23 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -2261,8 +2400,8 @@
       <c r="I60" s="3">
         <v>0</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>0</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2270,9 +2409,12 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2303,9 +2445,12 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,20 +2589,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -2459,8 +2616,8 @@
       <c r="I66" s="3">
         <v>0</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="J66" s="3">
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,21 +2785,24 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-100</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
       <c r="G72" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2812,8 @@
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,20 +2929,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E76" s="3">
         <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -2771,8 +2956,8 @@
       <c r="I76" s="3">
         <v>0</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,59 +3001,65 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43677</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43312</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42947</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42582</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42216</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41851</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -2875,8 +3069,8 @@
       <c r="I81" s="3">
         <v>0</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,13 +3097,14 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2920,8 +3118,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,21 +3310,24 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -3121,8 +3337,8 @@
       <c r="I89" s="3">
         <v>0</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,13 +3365,14 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3169,8 +3389,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,14 +3470,17 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3268,8 +3497,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,21 +3666,24 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -3448,8 +3693,8 @@
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3457,9 +3702,12 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3490,14 +3738,17 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3514,8 +3765,8 @@
       <c r="I102" s="3">
         <v>0</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SNTW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNTW_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>SNTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,62 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43312</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42947</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42582</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42216</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41851</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -736,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
@@ -750,9 +754,12 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -765,20 +772,20 @@
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
@@ -786,9 +793,12 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,8 +811,8 @@
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -813,8 +823,8 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
@@ -822,9 +832,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,20 +927,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -940,15 +960,18 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1005,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,34 +1022,35 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1031,9 +1058,12 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1041,14 +1071,14 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1058,8 +1088,8 @@
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1097,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,8 +1117,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1110,8 +1144,8 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1119,32 +1153,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1155,9 +1192,12 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1191,24 +1231,27 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1218,8 +1261,8 @@
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1227,23 +1270,26 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1254,8 +1300,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1263,9 +1309,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,24 +1348,27 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1326,8 +1378,8 @@
       <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1335,24 +1387,27 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1362,8 +1417,8 @@
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1426,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1465,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1504,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,9 +1582,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1542,8 +1612,8 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1551,24 +1621,27 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1578,8 +1651,8 @@
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1660,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,24 +1699,27 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1650,8 +1729,8 @@
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1659,50 +1738,56 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43312</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42947</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42582</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42216</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41851</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,22 +1819,23 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1768,9 +1855,12 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,9 +1894,12 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1840,9 +1933,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,9 +1972,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1903,27 +2002,30 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -1939,8 +2041,8 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
@@ -1948,9 +2050,12 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1984,17 +2089,20 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2011,8 +2119,8 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2020,9 +2128,12 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2056,9 +2167,12 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,9 +2245,12 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2140,8 +2260,8 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2155,8 +2275,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2284,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,18 +2323,21 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -2227,8 +2353,8 @@
       <c r="J54" s="3">
         <v>0</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
+      <c r="K54" s="3">
+        <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2362,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,22 +2399,23 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2304,23 +2435,26 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2334,29 +2468,32 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2367,8 +2504,8 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2376,23 +2513,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -2403,8 +2543,8 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
+      <c r="K60" s="3">
+        <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
@@ -2412,9 +2552,12 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2448,9 +2591,12 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2484,9 +2630,12 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,23 +2747,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -2619,8 +2777,8 @@
       <c r="J66" s="3">
         <v>0</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
+      <c r="K66" s="3">
+        <v>0</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2786,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,24 +2959,27 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-100</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
@@ -2815,8 +2989,8 @@
       <c r="J72" s="3">
         <v>0</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2998,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,23 +3115,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-200</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>-100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -2959,8 +3145,8 @@
       <c r="J76" s="3">
         <v>0</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3154,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,65 +3193,71 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43312</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42947</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42582</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42216</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41851</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -3072,8 +3267,8 @@
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3276,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,16 +3296,17 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3121,8 +3320,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3133,9 +3332,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,24 +3527,27 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -3340,8 +3557,8 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3566,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,16 +3586,17 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3392,8 +3613,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3401,9 +3622,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,17 +3700,20 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3500,8 +3730,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3739,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3759,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3795,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,24 +3912,27 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -3696,8 +3942,8 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -3705,9 +3951,12 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3741,18 +3990,21 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -3768,8 +4020,8 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4029,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SNTW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNTW_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>SNTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,65 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43312</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42947</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42582</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42216</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41851</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -743,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
@@ -757,9 +760,12 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -775,20 +781,20 @@
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
@@ -796,9 +802,12 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +823,8 @@
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -826,8 +835,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
@@ -835,9 +844,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,23 +946,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -963,15 +982,18 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,9 +1030,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,37 +1048,38 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1061,9 +1087,12 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1071,17 +1100,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1091,8 +1120,8 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1100,9 +1129,12 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,8 +1150,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1147,8 +1180,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1156,35 +1189,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
@@ -1195,9 +1231,12 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1234,27 +1273,30 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1264,8 +1306,8 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1273,23 +1315,26 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1303,8 +1348,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1312,9 +1357,12 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,27 +1399,30 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1381,8 +1432,8 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1390,27 +1441,30 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1420,8 +1474,8 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1429,9 +1483,12 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,9 +1525,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1507,9 +1567,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,9 +1651,12 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1615,8 +1684,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1624,27 +1693,30 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1654,8 +1726,8 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1663,9 +1735,12 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,27 +1777,30 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1732,8 +1810,8 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1741,53 +1819,59 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43312</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42947</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42582</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42216</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41851</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,25 +1905,26 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1858,9 +1944,12 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1897,9 +1986,12 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1936,9 +2028,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1975,14 +2070,17 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2005,30 +2103,33 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2044,8 +2145,8 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -2053,9 +2154,12 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2092,20 +2196,23 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2122,8 +2229,8 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2131,9 +2238,12 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2170,9 +2280,12 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,9 +2364,12 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2263,8 +2382,8 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2278,8 +2397,8 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2287,9 +2406,12 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,21 +2448,24 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -2356,8 +2481,8 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
+      <c r="L54" s="3">
+        <v>0</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
@@ -2365,9 +2490,12 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,16 +2529,17 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+      <c r="E57" s="3">
+        <v>200</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -2417,8 +2547,8 @@
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2438,9 +2568,12 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2450,14 +2583,14 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2471,15 +2604,18 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2487,16 +2623,16 @@
         <v>600</v>
       </c>
       <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2507,8 +2643,8 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -2516,26 +2652,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -2546,8 +2685,8 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
+      <c r="L60" s="3">
+        <v>0</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
@@ -2555,9 +2694,12 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2594,9 +2736,12 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2633,9 +2778,12 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,26 +2904,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
@@ -2780,8 +2937,8 @@
       <c r="K66" s="3">
         <v>0</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
+      <c r="L66" s="3">
+        <v>0</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
@@ -2789,9 +2946,12 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,27 +3132,30 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-100</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
@@ -2992,8 +3165,8 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3001,9 +3174,12 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,26 +3300,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-200</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-100</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
@@ -3148,8 +3333,8 @@
       <c r="K76" s="3">
         <v>0</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3157,9 +3342,12 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,71 +3384,77 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43312</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42947</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42582</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42216</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41851</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3270,8 +3464,8 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3279,9 +3473,12 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,19 +3494,20 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3323,8 +3521,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3335,9 +3533,12 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,27 +3743,30 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -3560,8 +3776,8 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3569,9 +3785,12 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,19 +3806,20 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3616,8 +3836,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3625,9 +3845,12 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,20 +3929,23 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3733,8 +3962,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3742,9 +3971,12 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,8 +3992,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3798,9 +4031,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,27 +4157,30 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -3945,8 +4190,8 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -3954,9 +4199,12 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3993,21 +4241,24 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -4023,8 +4274,8 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4032,7 +4283,10 @@
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
